--- a/data/CPRD prevalence.xlsx
+++ b/data/CPRD prevalence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4898e5cc837f6cd5/Documents/Bristol/Coeliac review HTA/Coeliac_screening/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:40009_{B512D5AA-9D51-4D76-88A8-694AC8288B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0636EE1A-8DFC-4913-9B07-E8D62AD0EEBA}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:40009_{B512D5AA-9D51-4D76-88A8-694AC8288B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ACC8782-0CA2-45AD-A559-7C18CD62D2FA}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Age categories</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Osteoporosis_r</t>
   </si>
   <si>
-    <t>Subfertility_r</t>
-  </si>
-  <si>
     <t>IDA_r</t>
   </si>
   <si>
-    <t>No complications_r</t>
-  </si>
-  <si>
     <t>NHL</t>
   </si>
   <si>
@@ -68,14 +62,284 @@
     <t>IDA</t>
   </si>
   <si>
-    <t>No complications</t>
+    <t>Non-Hodgkin's lymphoma, n(%)</t>
+  </si>
+  <si>
+    <t>Osteoporosis, n(%)</t>
+  </si>
+  <si>
+    <t>Iron-deficiency anaemia, n(%)</t>
+  </si>
+  <si>
+    <t>2 (0.06%)</t>
+  </si>
+  <si>
+    <t>1 (0.03%)</t>
+  </si>
+  <si>
+    <t>371 (10.85%)</t>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+  </si>
+  <si>
+    <t>19 (0.5%)</t>
+  </si>
+  <si>
+    <t>544 (14.3%)</t>
+  </si>
+  <si>
+    <t>4 (0.09%)</t>
+  </si>
+  <si>
+    <t>87 (1.7%)</t>
+  </si>
+  <si>
+    <t>795 (15.57%)</t>
+  </si>
+  <si>
+    <t>8 (0.15%)</t>
+  </si>
+  <si>
+    <t>207 (3.45%)</t>
+  </si>
+  <si>
+    <t>1277 (21.27%)</t>
+  </si>
+  <si>
+    <t>28 (0.46%)</t>
+  </si>
+  <si>
+    <t>594 (8.01%)</t>
+  </si>
+  <si>
+    <t>2027 (27.33%)</t>
+  </si>
+  <si>
+    <t>49 (0.84%)</t>
+  </si>
+  <si>
+    <t>1401 (18.01%)</t>
+  </si>
+  <si>
+    <t>2116 (27.2%)</t>
+  </si>
+  <si>
+    <t>70 (1.37%)</t>
+  </si>
+  <si>
+    <t>2199 (31.21%)</t>
+  </si>
+  <si>
+    <t>2081 (29.53%)</t>
+  </si>
+  <si>
+    <t>60 (1.72%)</t>
+  </si>
+  <si>
+    <t>2124 (41.22%)</t>
+  </si>
+  <si>
+    <t>1957 (37.98%)</t>
+  </si>
+  <si>
+    <t>19 (1.46%)</t>
+  </si>
+  <si>
+    <t>903 (43.77%)</t>
+  </si>
+  <si>
+    <t>888 (43.04%)</t>
+  </si>
+  <si>
+    <t>2 (1.41%)</t>
+  </si>
+  <si>
+    <t>100 (39.22%)</t>
+  </si>
+  <si>
+    <t>117 (45.88%)</t>
+  </si>
+  <si>
+    <t>1 (0.08%)</t>
+  </si>
+  <si>
+    <t>149 (11.47%)</t>
+  </si>
+  <si>
+    <t>1 (0.07%)</t>
+  </si>
+  <si>
+    <t>5 (0.35%)</t>
+  </si>
+  <si>
+    <t>132 (9.32%)</t>
+  </si>
+  <si>
+    <t>2 (0.17%)</t>
+  </si>
+  <si>
+    <t>23 (1.93%)</t>
+  </si>
+  <si>
+    <t>83 (6.97%)</t>
+  </si>
+  <si>
+    <t>2 (0.12%)</t>
+  </si>
+  <si>
+    <t>59 (3.68%)</t>
+  </si>
+  <si>
+    <t>137 (8.55%)</t>
+  </si>
+  <si>
+    <t>15 (0.7%)</t>
+  </si>
+  <si>
+    <t>164 (7.63%)</t>
+  </si>
+  <si>
+    <t>298 (13.87%)</t>
+  </si>
+  <si>
+    <t>27 (1.02%)</t>
+  </si>
+  <si>
+    <t>314 (11.84%)</t>
+  </si>
+  <si>
+    <t>568 (21.42%)</t>
+  </si>
+  <si>
+    <t>42 (1.56%)</t>
+  </si>
+  <si>
+    <t>470 (17.43%)</t>
+  </si>
+  <si>
+    <t>816 (30.27%)</t>
+  </si>
+  <si>
+    <t>36 (1.81%)</t>
+  </si>
+  <si>
+    <t>458 (22.98%)</t>
+  </si>
+  <si>
+    <t>772 (38.74%)</t>
+  </si>
+  <si>
+    <t>15 (1.93%)</t>
+  </si>
+  <si>
+    <t>208 (26.74%)</t>
+  </si>
+  <si>
+    <t>340 (43.7%)</t>
+  </si>
+  <si>
+    <t>1 (1.27%)</t>
+  </si>
+  <si>
+    <t>23 (29.11%)</t>
+  </si>
+  <si>
+    <t>36 (45.57%)</t>
+  </si>
+  <si>
+    <t>1 (0.05%)</t>
+  </si>
+  <si>
+    <t>222 (10.47%)</t>
+  </si>
+  <si>
+    <t>1 (0.04%)</t>
+  </si>
+  <si>
+    <t>14 (0.59%)</t>
+  </si>
+  <si>
+    <t>412 (17.27%)</t>
+  </si>
+  <si>
+    <t>2 (0.05%)</t>
+  </si>
+  <si>
+    <t>64 (1.63%)</t>
+  </si>
+  <si>
+    <t>712 (18.18%)</t>
+  </si>
+  <si>
+    <t>5 (0.11%)</t>
+  </si>
+  <si>
+    <t>148 (3.36%)</t>
+  </si>
+  <si>
+    <t>1140 (25.9%)</t>
+  </si>
+  <si>
+    <t>12 (0.23%)</t>
+  </si>
+  <si>
+    <t>430 (8.16%)</t>
+  </si>
+  <si>
+    <t>1729 (32.82%)</t>
+  </si>
+  <si>
+    <t>22 (0.43%)</t>
+  </si>
+  <si>
+    <t>1087 (21.21%)</t>
+  </si>
+  <si>
+    <t>1548 (30.2%)</t>
+  </si>
+  <si>
+    <t>41 (0.94%)</t>
+  </si>
+  <si>
+    <t>1729 (39.75%)</t>
+  </si>
+  <si>
+    <t>1265 (29.08%)</t>
+  </si>
+  <si>
+    <t>42 (1.33%)</t>
+  </si>
+  <si>
+    <t>1666 (52.72%)</t>
+  </si>
+  <si>
+    <t>1185 (37.5%)</t>
+  </si>
+  <si>
+    <t>19 (1.48%)</t>
+  </si>
+  <si>
+    <t>695 (54.09%)</t>
+  </si>
+  <si>
+    <t>548 (42.65%)</t>
+  </si>
+  <si>
+    <t>3 (1.7%)</t>
+  </si>
+  <si>
+    <t>77 (43.75%)</t>
+  </si>
+  <si>
+    <t>81 (46.02%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +481,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +676,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -518,9 +802,52 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -568,17 +895,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -938,12 +1279,17 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="9" max="9" width="17.734375" customWidth="1"/>
+    <col min="10" max="10" width="17.9453125" customWidth="1"/>
+    <col min="11" max="12" width="17.734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,403 +1312,465 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2923</v>
+      <c r="B2" s="5">
+        <v>3419</v>
       </c>
       <c r="C2">
+        <f>VALUE(LEFT(I2, FIND("(", I2) - 1))</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>VALUE(LEFT(J2, FIND("(", J2) - 1))</f>
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <f t="shared" ref="E2" si="0">VALUE(LEFT(L2, FIND("(", L2) - 1))</f>
+        <v>371</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <f t="shared" ref="F2:F11" si="1">C2/$B2</f>
+        <v>5.8496636443404503E-4</v>
       </c>
       <c r="G2">
-        <v>2797</v>
+        <f t="shared" ref="G2:G11" si="2">D2/$B2</f>
+        <v>2.9248318221702252E-4</v>
       </c>
       <c r="H2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I2">
-        <v>1E-3</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.95699999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="H2:H11" si="3">E2/$B2</f>
+        <v>0.10851126060251536</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>3521</v>
+      <c r="B3" s="6">
+        <v>3803</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f t="shared" ref="C3:C11" si="4">VALUE(LEFT(I3, FIND("(", I3) - 1))</f>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <f t="shared" ref="D3:D11" si="5">VALUE(LEFT(J3, FIND("(", J3) - 1))</f>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <f t="shared" ref="E3:E11" si="6">VALUE(LEFT(L3, FIND("(", L3) - 1))</f>
+        <v>544</v>
       </c>
       <c r="F3">
-        <v>199</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3303</v>
+        <f t="shared" si="2"/>
+        <v>4.9960557454641072E-3</v>
       </c>
       <c r="H3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I3">
-        <v>2.3E-3</v>
-      </c>
-      <c r="J3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K3">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="L3">
-        <v>0.93789999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.14304496450170917</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>4759</v>
+      <c r="B4" s="6">
+        <v>5106</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>115</v>
+        <f t="shared" si="6"/>
+        <v>795</v>
       </c>
       <c r="F4">
-        <v>352</v>
+        <f t="shared" si="1"/>
+        <v>7.833920877399138E-4</v>
       </c>
       <c r="G4">
-        <v>4256</v>
+        <f t="shared" si="2"/>
+        <v>1.7038777908343124E-2</v>
       </c>
       <c r="H4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I4">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="J4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K4">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="L4">
-        <v>0.89449999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.15569917743830788</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>5917</v>
+      <c r="B5" s="6">
+        <v>6005</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <f t="shared" si="5"/>
+        <v>207</v>
       </c>
       <c r="E5">
-        <v>306</v>
+        <f t="shared" si="6"/>
+        <v>1277</v>
       </c>
       <c r="F5">
-        <v>532</v>
+        <f t="shared" si="1"/>
+        <v>1.3322231473771858E-3</v>
       </c>
       <c r="G5">
-        <v>5000</v>
+        <f t="shared" si="2"/>
+        <v>3.4471273938384679E-2</v>
       </c>
       <c r="H5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="I5">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="J5">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="K5">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.84509999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.21265611990008326</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>7658</v>
+      <c r="B6" s="6">
+        <v>7417</v>
       </c>
       <c r="C6">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D6">
-        <v>177</v>
+        <f t="shared" si="5"/>
+        <v>594</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <f t="shared" si="6"/>
+        <v>2027</v>
       </c>
       <c r="F6">
-        <v>931</v>
+        <f t="shared" si="1"/>
+        <v>3.7751112309559122E-3</v>
       </c>
       <c r="G6">
-        <v>6227</v>
+        <f t="shared" si="2"/>
+        <v>8.0086288256707563E-2</v>
       </c>
       <c r="H6">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="I6">
-        <v>1.231E-2</v>
-      </c>
-      <c r="J6">
-        <v>3.85E-2</v>
-      </c>
-      <c r="K6">
-        <v>0.1216</v>
-      </c>
-      <c r="L6">
-        <v>0.82389000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.2732910880409869</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7">
-        <v>8067</v>
+      <c r="B7" s="6">
+        <v>7778</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>499</v>
+        <f t="shared" si="5"/>
+        <v>1401</v>
       </c>
       <c r="E7">
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>2116</v>
       </c>
       <c r="F7">
-        <v>1063</v>
+        <f t="shared" si="1"/>
+        <v>6.2998200051427103E-3</v>
       </c>
       <c r="G7">
-        <v>6353</v>
+        <f t="shared" si="2"/>
+        <v>0.1801234250449987</v>
       </c>
       <c r="H7">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="I7">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="J7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.1318</v>
-      </c>
-      <c r="L7">
-        <v>0.78400000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.2720493700179995</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8">
-        <v>7310</v>
+      <c r="B8" s="6">
+        <v>7046</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>941</v>
+        <f t="shared" si="5"/>
+        <v>2199</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>2081</v>
       </c>
       <c r="F8">
-        <v>1049</v>
+        <f t="shared" si="1"/>
+        <v>9.9347147317627015E-3</v>
       </c>
       <c r="G8">
-        <v>5241</v>
+        <f t="shared" si="2"/>
+        <v>0.31209196707351688</v>
       </c>
       <c r="H8">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.129</v>
-      </c>
-      <c r="J8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K8">
-        <v>0.14349999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.7167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.29534487652568836</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>5433</v>
+      <c r="B9" s="6">
+        <v>5153</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>1124</v>
+        <f t="shared" si="5"/>
+        <v>2124</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1957</v>
       </c>
       <c r="F9">
-        <v>1069</v>
+        <f t="shared" si="1"/>
+        <v>1.1643702697457792E-2</v>
       </c>
       <c r="G9">
-        <v>3163</v>
+        <f t="shared" si="2"/>
+        <v>0.41218707549000583</v>
       </c>
       <c r="H9">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.2069</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.1968</v>
-      </c>
-      <c r="L9">
-        <v>0.58209999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.37977876964874829</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10">
-        <v>2173</v>
+      <c r="B10" s="6">
+        <v>2063</v>
       </c>
       <c r="C10">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>903</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>888</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>9.2098885118759091E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.43771206980126032</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.43044110518662143</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10">
-        <v>569</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>513</v>
-      </c>
-      <c r="G10">
-        <v>1055</v>
-      </c>
-      <c r="H10">
-        <v>1.66E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.26179999999999998</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.2361</v>
-      </c>
-      <c r="L10">
-        <v>0.48549999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11">
-        <v>300</v>
+      <c r="B11" s="7">
+        <v>255</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>7.8431372549019607E-3</v>
       </c>
       <c r="G11">
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>0.39215686274509803</v>
       </c>
       <c r="H11">
-        <v>1.67E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.31669999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.26</v>
-      </c>
-      <c r="L11">
-        <v>0.40660000000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.45882352941176469</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1371,12 +1779,18 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="9" max="9" width="18.3125" customWidth="1"/>
+    <col min="10" max="10" width="18.41796875" customWidth="1"/>
+    <col min="11" max="11" width="17.734375" customWidth="1"/>
+    <col min="12" max="12" width="17.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,459 +1813,459 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>1141</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="5">
+        <v>1299</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(LEFT(I2, FIND("(", I2) - 1))</f>
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="D2">
+        <f>VALUE(LEFT(J2, FIND("(", J2) - 1))</f>
+        <v>0</v>
       </c>
       <c r="E2">
+        <f t="shared" ref="E2:E11" si="0">VALUE(LEFT(L2, FIND("(", L2) - 1))</f>
+        <v>149</v>
+      </c>
+      <c r="F2">
+        <f>C2/$B2</f>
+        <v>7.6982294072363352E-4</v>
+      </c>
+      <c r="G2">
+        <f>D2/$B2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2">
-        <f>B2-SUM(C2:F2)</f>
-        <v>1091</v>
-      </c>
       <c r="H2">
-        <f>C2/$B2</f>
-        <v>8.7642418930762491E-4</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:L11" si="0">D2/$B2</f>
-        <v>1.7528483786152498E-3</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>4.119193689745837E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0.95617879053461874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f>E2/$B2</f>
+        <v>0.1147036181678214</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>1369</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="6">
+        <v>1417</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="1">VALUE(LEFT(I3, FIND("(", I3) - 1))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>3</v>
+      <c r="D3">
+        <f>VALUE(LEFT(J3, FIND("(", J3) - 1))</f>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G11" si="1">B3-SUM(C3:F3)</f>
-        <v>1312</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <f>C3/$B3</f>
+        <v>7.0571630204657732E-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="2">D3/$B3</f>
+        <v>3.5285815102328866E-3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">C3/$B3</f>
-        <v>7.3046018991964939E-4</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>2.1913805697589481E-3</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>3.8714390065741421E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.95836376917457999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="H3:H11" si="3">E3/$B3</f>
+        <v>9.3154551870148206E-2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
-        <v>1259</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
+      <c r="B4" s="6">
+        <v>1190</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>VALUE(LEFT(J4, FIND("(", J4) - 1))</f>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>1205</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <f>C4/$B4</f>
+        <v>1.6806722689075631E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1.9327731092436976E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>7.9428117553613975E-4</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>5.5599682287529786E-3</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>3.6536934074662429E-2</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0.9571088165210484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>6.9747899159663868E-2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
-        <v>1620</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="6">
+        <v>1603</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>23</v>
+      <c r="D5">
+        <f>VALUE(LEFT(J5, FIND("(", J5) - 1))</f>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>1529</v>
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="F5">
+        <f>C5/$B5</f>
+        <v>1.2476606363069245E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>3.6805988771054274E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>1.2345679012345679E-3</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.4197530864197531E-2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>4.0740740740740744E-2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.9438271604938272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>8.5464753587024322E-2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
-        <v>2275</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>48</v>
+      <c r="B6" s="6">
+        <v>2149</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>VALUE(LEFT(J6, FIND("(", J6) - 1))</f>
+        <v>164</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>164</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>2044</v>
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="F6">
+        <f>C6/$B6</f>
+        <v>6.9799906933457421E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>7.6314564913913446E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>8.3516483516483525E-3</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2.1098901098901099E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>7.2087912087912084E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.89846153846153842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.1386691484411354</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
-        <v>2682</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>93</v>
+      <c r="B7" s="6">
+        <v>2652</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <f>VALUE(LEFT(J7, FIND("(", J7) - 1))</f>
+        <v>314</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>328</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>2231</v>
+        <f t="shared" si="0"/>
+        <v>568</v>
+      </c>
+      <c r="F7">
+        <f>C7/$B7</f>
+        <v>1.0180995475113122E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.11840120663650075</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1.1185682326621925E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>3.4675615212527967E-2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0.12229679343773303</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.83184190902311705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.21417797888386123</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="3">
-        <v>2670</v>
-      </c>
-      <c r="C8" s="1">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1">
-        <v>198</v>
+      <c r="B8" s="6">
+        <v>2696</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <f>VALUE(LEFT(J8, FIND("(", J8) - 1))</f>
+        <v>470</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>422</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>2012</v>
+        <f t="shared" si="0"/>
+        <v>816</v>
+      </c>
+      <c r="F8">
+        <f>C8/$B8</f>
+        <v>1.5578635014836795E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.17433234421364985</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1.4232209737827715E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7.415730337078652E-2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0.15805243445692885</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0.75355805243445695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.30267062314540061</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="3">
-        <v>2074</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1">
-        <v>204</v>
+      <c r="B9" s="6">
+        <v>1993</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <f>VALUE(LEFT(J9, FIND("(", J9) - 1))</f>
+        <v>458</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>419</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>1406</v>
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="F9">
+        <f>C9/$B9</f>
+        <v>1.8063221274460611E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.22980431510286001</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>2.1697203471552556E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>9.8360655737704916E-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.20202507232401157</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0.67791706846673094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.38735574510787757</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="4">
-        <v>828</v>
-      </c>
-      <c r="C10" s="1">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>117</v>
+      <c r="B10" s="7">
+        <v>778</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <f>VALUE(LEFT(J10, FIND("(", J10) - 1))</f>
+        <v>208</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>189</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>505</v>
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="F10">
+        <f>C10/$B10</f>
+        <v>1.9280205655526992E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.26735218508997427</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>2.0531400966183576E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.14130434782608695</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0.22826086956521738</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0.60990338164251212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.43701799485861181</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="4">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="7">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>20</v>
+      <c r="D11">
+        <f>VALUE(LEFT(J11, FIND("(", J11) - 1))</f>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <f>C11/$B11</f>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.29113924050632911</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <f t="shared" si="3"/>
+        <v>0.45569620253164556</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1865,12 +2279,17 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="9" max="10" width="17.62890625" customWidth="1"/>
+    <col min="11" max="11" width="17.734375" customWidth="1"/>
+    <col min="12" max="12" width="17.62890625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1893,459 +2312,459 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>1782</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="5">
+        <v>2120</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(LEFT(I2, FIND("(", I2) - 1))</f>
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>75</v>
-      </c>
-      <c r="G2" s="2">
-        <f>B2-SUM(C2:F2)</f>
-        <v>1706</v>
+      <c r="D2">
+        <f>VALUE(LEFT(J2, FIND("(", J2) - 1))</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E11" si="0">VALUE(LEFT(L2, FIND("(", L2) - 1))</f>
+        <v>222</v>
+      </c>
+      <c r="F2">
+        <f>C2/$B2</f>
+        <v>4.7169811320754717E-4</v>
+      </c>
+      <c r="G2">
+        <f>D2/$B2</f>
+        <v>4.7169811320754717E-4</v>
       </c>
       <c r="H2">
-        <f>C2/$B2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:L11" si="0">D2/$B2</f>
-        <v>5.6116722783389455E-4</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>4.208754208754209E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0.95735129068462399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f>E2/$B2</f>
+        <v>0.10471698113207548</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>2152</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>146</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G11" si="1">B3-SUM(C3:F3)</f>
-        <v>1991</v>
+      <c r="B3" s="6">
+        <v>2386</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="1">VALUE(LEFT(I3, FIND("(", I3) - 1))</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>VALUE(LEFT(J3, FIND("(", J3) - 1))</f>
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="F3">
+        <f>C3/$B3</f>
+        <v>4.1911148365465214E-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="2">D3/$B3</f>
+        <v>5.86756077116513E-3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">C3/$B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>2.3234200743494425E-3</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>4.646840148698885E-3</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>6.7843866171003714E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.92518587360594795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="H3:H11" si="3">E3/$B3</f>
+        <v>0.17267393126571667</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
-        <v>3500</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1">
-        <v>115</v>
-      </c>
-      <c r="F4" s="1">
-        <v>306</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B4" s="6">
+        <v>3916</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="1"/>
-        <v>3051</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>VALUE(LEFT(J4, FIND("(", J4) - 1))</f>
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="F4">
+        <f>C4/$B4</f>
+        <v>5.1072522982635344E-4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1.634320735444331E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>2.8571428571428574E-4</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>7.7142857142857143E-3</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>3.2857142857142856E-2</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>8.7428571428571425E-2</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0.87171428571428566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
-        <v>4297</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1">
-        <v>306</v>
-      </c>
-      <c r="F5" s="1">
-        <v>466</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B5" s="6">
+        <v>4402</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="1"/>
-        <v>3471</v>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>VALUE(LEFT(J5, FIND("(", J5) - 1))</f>
+        <v>148</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="F5">
+        <f>C5/$B5</f>
+        <v>1.1358473421172195E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>3.3621081326669695E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>6.9816150802885736E-4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.1868745636490576E-2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>7.1212473818943453E-2</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0.10844775424714917</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.80777286478938792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.25897319400272606</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
-        <v>5383</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>129</v>
-      </c>
-      <c r="E6" s="1">
-        <v>295</v>
-      </c>
-      <c r="F6" s="1">
-        <v>767</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="B6" s="6">
+        <v>5268</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="1"/>
-        <v>4183</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>VALUE(LEFT(J6, FIND("(", J6) - 1))</f>
+        <v>430</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1729</v>
+      </c>
+      <c r="F6">
+        <f>C6/$B6</f>
+        <v>2.2779043280182231E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8.1624905087319663E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>1.6719301504737136E-3</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2.3964332156789895E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>5.4802154932193946E-2</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.14248560282370426</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.77707597993683819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.32820804859529235</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
-        <v>5385</v>
-      </c>
-      <c r="C7" s="1">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>406</v>
-      </c>
-      <c r="E7" s="1">
-        <v>93</v>
-      </c>
-      <c r="F7" s="1">
-        <v>735</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B7" s="6">
+        <v>5126</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
-        <v>4122</v>
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <f>VALUE(LEFT(J7, FIND("(", J7) - 1))</f>
+        <v>1087</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1548</v>
+      </c>
+      <c r="F7">
+        <f>C7/$B7</f>
+        <v>4.2918454935622317E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.21205618415918845</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>5.385329619312906E-3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>7.539461467038068E-2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.7270194986072424E-2</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0.13649025069637882</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0.76545961002785512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.3019898556379243</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="3">
-        <v>4640</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1">
-        <v>743</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>627</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="B8" s="6">
+        <v>4350</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="1"/>
-        <v>3229</v>
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <f>VALUE(LEFT(J8, FIND("(", J8) - 1))</f>
+        <v>1729</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1265</v>
+      </c>
+      <c r="F8">
+        <f>C8/$B8</f>
+        <v>9.4252873563218393E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.3974712643678161</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>8.4051724137931029E-3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.16012931034482758</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>4.3103448275862068E-4</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0.13512931034482759</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0.69590517241379313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.29080459770114941</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="3">
-        <v>3359</v>
-      </c>
-      <c r="C9" s="1">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1">
-        <v>920</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>650</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B9" s="6">
+        <v>3160</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
-        <v>1757</v>
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <f>VALUE(LEFT(J9, FIND("(", J9) - 1))</f>
+        <v>1666</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1185</v>
+      </c>
+      <c r="F9">
+        <f>C9/$B9</f>
+        <v>1.3291139240506329E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.52721518987341776</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>9.5266448347722538E-3</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.2738910389997023</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.19350997320631141</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0.52307234295921401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="3">
-        <v>1345</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="6">
+        <v>1285</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D10" s="1">
-        <v>452</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>324</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>550</v>
+      <c r="D10">
+        <f>VALUE(LEFT(J10, FIND("(", J10) - 1))</f>
+        <v>695</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="F10">
+        <f>C10/$B10</f>
+        <v>1.4785992217898832E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.54085603112840464</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1.412639405204461E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.33605947955390336</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0.24089219330855019</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0.40892193308550184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>0.42645914396887158</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="4">
-        <v>210</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>75</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="7">
+        <v>176</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>VALUE(LEFT(J11, FIND("(", J11) - 1))</f>
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <f>C11/$B11</f>
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.4375</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>4.7619047619047623E-3</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.26190476190476192</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0.37619047619047619</v>
+        <f t="shared" si="3"/>
+        <v>0.46022727272727271</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
